--- a/Excel Practice Sheet  - 1.xlsx
+++ b/Excel Practice Sheet  - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Wavhal\Desktop\Tops\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675F11D5-BDBE-49E8-8394-976CD2F1FFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F28EBEE-B1CB-466B-9C43-6C93DB9549CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{67E8DA95-3A18-49ED-95FD-83640ED7A3D7}"/>
   </bookViews>
@@ -1072,7 +1072,7 @@
   <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A2" sqref="A2:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel Practice Sheet  - 1.xlsx
+++ b/Excel Practice Sheet  - 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Wavhal\Desktop\Tops\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F28EBEE-B1CB-466B-9C43-6C93DB9549CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9C8B4F-E045-4877-932B-CAA219B5C537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{67E8DA95-3A18-49ED-95FD-83640ED7A3D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="7" xr2:uid="{67E8DA95-3A18-49ED-95FD-83640ED7A3D7}"/>
   </bookViews>
   <sheets>
     <sheet name="1-VLOOKUP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="5- MID" sheetId="5" r:id="rId5"/>
     <sheet name="6- OFFSET" sheetId="6" r:id="rId6"/>
     <sheet name="7- CHOOSE" sheetId="7" r:id="rId7"/>
-    <sheet name="8- Remove Duplicates " sheetId="8" r:id="rId8"/>
+    <sheet name="8- REMOVE DUPLICATES" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="150">
   <si>
     <t>Top Products</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>Unique Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data--&gt; Remove Duplicates </t>
   </si>
 </sst>
 </file>
@@ -1071,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03BAD7A-D84A-4D52-9415-2F2EFFAF878C}">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2840,7 +2843,7 @@
   <dimension ref="B2:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3097,7 +3100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFC57EB-F575-4420-ADA3-821720DC161A}">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -3128,6 +3131,11 @@
         <v>148</v>
       </c>
     </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+    </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>133</v>

--- a/Excel Practice Sheet  - 1.xlsx
+++ b/Excel Practice Sheet  - 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Wavhal\Desktop\Tops\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9C8B4F-E045-4877-932B-CAA219B5C537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3254AF-CD6F-4498-8EDA-3CB997671135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="7" xr2:uid="{67E8DA95-3A18-49ED-95FD-83640ED7A3D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="6" xr2:uid="{67E8DA95-3A18-49ED-95FD-83640ED7A3D7}"/>
   </bookViews>
   <sheets>
     <sheet name="1-VLOOKUP" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -763,7 +763,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{8CF642F9-7840-49C8-9666-9256C182092F}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2334,7 +2336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD10DC13-23F0-4485-8EB8-A07DB980E9B4}">
   <dimension ref="B3:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -2842,8 +2844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3A701D-22E0-435C-B2AF-A7FA3911EA12}">
   <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3100,7 +3102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFC57EB-F575-4420-ADA3-821720DC161A}">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
